--- a/Work/レビュー仕様書/Sakuraレビュー.xlsx
+++ b/Work/レビュー仕様書/Sakuraレビュー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-4FPHGIN.000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-4FPHGIN.000\Desktop\otherData\pepe_other_file\Work\レビュー仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9B0A1BE-DABD-400B-AE83-41C1566A7358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08D78CF-2A4F-4A6B-8A86-180331BC84D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{139178B2-6036-462C-9AE9-336883629C1B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>☆設計書レビュー項目書・結果書</t>
     <phoneticPr fontId="1"/>
@@ -175,6 +175,59 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネコ情報登録の際、体重の項目で文字列を入力した場合エラーメッセージが表示されない</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inputタグのtypeをtextからnumberに変更、小数第1位まで入力するためstepを０.１に設定</t>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -573,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4123DECE-57DB-4ECE-890F-EAF4FBCAC281}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -585,6 +638,7 @@
     <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="4" max="4" width="26.25" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
@@ -662,6 +716,28 @@
       <c r="H6" s="6"/>
       <c r="I6" s="3"/>
     </row>
+    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5">
+        <v>45209</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work/レビュー仕様書/Sakuraレビュー.xlsx
+++ b/Work/レビュー仕様書/Sakuraレビュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-4FPHGIN.000\Desktop\otherData\pepe_other_file\Work\レビュー仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08D78CF-2A4F-4A6B-8A86-180331BC84D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12C5AA5-CCA7-418C-A92B-E9556952C24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{139178B2-6036-462C-9AE9-336883629C1B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>☆設計書レビュー項目書・結果書</t>
     <phoneticPr fontId="1"/>
@@ -228,6 +228,47 @@
     </rPh>
     <rPh sb="51" eb="53">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信したメッセージを削除する際に確認のテキストの表示が無い</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信したメッセージの削除するをクリックした際に確認するよう変更</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -626,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4123DECE-57DB-4ECE-890F-EAF4FBCAC281}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -738,6 +779,28 @@
       <c r="H7" s="6"/>
       <c r="I7" s="3"/>
     </row>
+    <row r="8" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5">
+        <v>45209</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work/レビュー仕様書/Sakuraレビュー.xlsx
+++ b/Work/レビュー仕様書/Sakuraレビュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-4FPHGIN.000\Desktop\otherData\pepe_other_file\Work\レビュー仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12C5AA5-CCA7-418C-A92B-E9556952C24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ED550F-B40F-4E07-8025-C66B756E4D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{139178B2-6036-462C-9AE9-336883629C1B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>☆設計書レビュー項目書・結果書</t>
     <phoneticPr fontId="1"/>
@@ -269,6 +269,82 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">マイページ画面のユーザー情報を表示するテーブル内のユーザーIDを表示する部分でXSS対策が抜けていた </t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当箇所にXSS対策を実施</t>
+    <rPh sb="0" eb="4">
+      <t>ガイトウカショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページのマッチング機能のIDまっちのテーブルで数字だけでなく文字列も入力できている</t>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当箇所に入力できる内容を制限するコードを記述</t>
+    <rPh sb="0" eb="4">
+      <t>ガイトウカショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キジュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -667,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4123DECE-57DB-4ECE-890F-EAF4FBCAC281}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -801,6 +877,50 @@
       <c r="H8" s="6"/>
       <c r="I8" s="3"/>
     </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5">
+        <v>45211</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5">
+        <v>45212</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work/レビュー仕様書/Sakuraレビュー.xlsx
+++ b/Work/レビュー仕様書/Sakuraレビュー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-4FPHGIN.000\Desktop\otherData\pepe_other_file\Work\レビュー仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-U2OC2JH\Desktop\Sakura\pepe_other_file\Work\レビュー仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ED550F-B40F-4E07-8025-C66B756E4D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93728C4-9A47-4A60-9ADB-DBA68D2ED2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{139178B2-6036-462C-9AE9-336883629C1B}"/>
+    <workbookView xWindow="150" yWindow="0" windowWidth="20340" windowHeight="10920" xr2:uid="{139178B2-6036-462C-9AE9-336883629C1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>☆設計書レビュー項目書・結果書</t>
     <phoneticPr fontId="1"/>
@@ -345,6 +345,14 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加原
+10/17</t>
+    <rPh sb="0" eb="2">
+      <t>カハラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -426,8 +434,8 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4123DECE-57DB-4ECE-890F-EAF4FBCAC281}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" activeCellId="1" sqref="H10 I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -808,7 +816,9 @@
       <c r="G5" s="5">
         <v>45205</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -830,7 +840,9 @@
       <c r="G6" s="5">
         <v>45206</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.4">
@@ -852,7 +864,9 @@
       <c r="G7" s="5">
         <v>45209</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -874,7 +888,9 @@
       <c r="G8" s="5">
         <v>45209</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.4">
@@ -896,7 +912,9 @@
       <c r="G9" s="5">
         <v>45211</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -918,7 +936,9 @@
       <c r="G10" s="5">
         <v>45212</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="I10" s="3"/>
     </row>
   </sheetData>
